--- a/biology/Histoire de la zoologie et de la botanique/William_Townsend_Aiton/William_Townsend_Aiton.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Townsend_Aiton/William_Townsend_Aiton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Townsend Aiton est un botaniste britannique, né le 2 février 1766 à Kew et mort le 9 octobre 1849 à Kensington.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il travaille, dès son jeune âge, aux côtés de son père, William Aiton, aux Jardins botaniques royaux de Kew. Il lui succède à sa mort à la tête des Jardins. Il assure également la gestion des jardins des palais de Kensington et de Buckingham ainsi que le Royal Pavilion de Brighton. Il participe en 1804 à la fondation de la Royal Horticultural Society.
 Il supervise la deuxième édition de l’Hortus Kewensis (1810-1813). L’accession de Guillaume IV en 1830 marque le déclin des responsabilités d’Aiton mais aussi la réduction du financement des Jardins. C’est le transfert des Jardins, de la couronne à la nation, en 1841, qui met fait à cet affaiblissement, Sir William Jackson Hooker en devient le premier directeur. Aiton, sans responsabilités depuis 1841, démissionne en 1845.
